--- a/FPH_Linear/315-FPH-Relatório-Reg-D-FOZ R. CLARO.xlsx
+++ b/FPH_Linear/315-FPH-Relatório-Reg-D-FOZ R. CLARO.xlsx
@@ -951,7 +951,7 @@
         <v>-0</v>
       </c>
       <c r="E2">
-        <v>-0.005377626667920187</v>
+        <v>-0.003032603247600651</v>
       </c>
       <c r="F2">
         <v>3.58823871050802</v>
@@ -960,7 +960,7 @@
         <v>0.419291357905428</v>
       </c>
       <c r="H2">
-        <v>2.45980301540772</v>
+        <v>3.057766907655441</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -977,7 +977,7 @@
         <v>-0</v>
       </c>
       <c r="E3">
-        <v>-0.006847985147812635</v>
+        <v>-0.004386234104437571</v>
       </c>
       <c r="F3">
         <v>2.130378277694685</v>
@@ -997,7 +997,7 @@
         <v>-0</v>
       </c>
       <c r="E4">
-        <v>-0.01061766535834176</v>
+        <v>-0.00785665000855979</v>
       </c>
       <c r="F4">
         <v>0.8844989681147963</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0186464003185366</v>
+        <v>-0.01524800628807063</v>
       </c>
       <c r="F5">
         <v>3.669948441671207E-15</v>

--- a/FPH_Linear/315-FPH-Relatório-Reg-D-FOZ R. CLARO.xlsx
+++ b/FPH_Linear/315-FPH-Relatório-Reg-D-FOZ R. CLARO.xlsx
@@ -951,7 +951,7 @@
         <v>-0</v>
       </c>
       <c r="E2">
-        <v>-0.003032603247600651</v>
+        <v>-0.01045315383896471</v>
       </c>
       <c r="F2">
         <v>3.58823871050802</v>
@@ -960,7 +960,7 @@
         <v>0.419291357905428</v>
       </c>
       <c r="H2">
-        <v>3.057766907655441</v>
+        <v>1.988814481805927</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -977,7 +977,7 @@
         <v>-0</v>
       </c>
       <c r="E3">
-        <v>-0.004386234104437571</v>
+        <v>-0.01252987810223161</v>
       </c>
       <c r="F3">
         <v>2.130378277694685</v>
@@ -997,7 +997,7 @@
         <v>-0</v>
       </c>
       <c r="E4">
-        <v>-0.00785665000855979</v>
+        <v>-0.01785414865599176</v>
       </c>
       <c r="F4">
         <v>0.8844989681147963</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01524800628807063</v>
+        <v>-0.02919387901643789</v>
       </c>
       <c r="F5">
         <v>3.669948441671207E-15</v>
